--- a/Gestion de projet/TECH_Grille_evaluation_projet_L3_E3IN1.xlsx
+++ b/Gestion de projet/TECH_Grille_evaluation_projet_L3_E3IN1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C917CDBD-4F59-4E6C-AFF4-14B859C977E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C917CDBD-4F59-4E6C-AFF4-14B859C977E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC30F442-216D-4B76-AE53-FB75166FE6B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grille évaluation technique" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -60,535 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nom du projet : </t>
-  </si>
-  <si>
-    <t>Nom des étudiants :</t>
-  </si>
-  <si>
-    <t>N= Notions de 4 (niveau max) à 1 (niveau min.) et NA (non applicable )</t>
-  </si>
-  <si>
-    <t>Compréhension du projet</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>J0</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Formations langages / frameworks </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J1 de coaching</t>
-    </r>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Formations outils </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J1 de coaching</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Taux d'avancement du projet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> =&gt; (à chaque journée de coaching)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Evolution du projet en terme technique </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; (à chaque journée de coaching)</t>
-    </r>
-  </si>
-  <si>
-    <t>Analyse et mise en place</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Existence d'un schéma de composants / déploiement </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J2 et J4 de coaching</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Existence d'un schéma de package /classes métiers</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> =&gt; J2 et J4 de coaching</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Mise en place de l'environnement de développement </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J1 et J2 de coaching</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Mise en place de l'outil de versionning (GIT, SVN, CVS, …) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J2 de coaching  max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Réflexion sur la mise en place de l'environnement de production</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J1 de coaching</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Existence d'un planning Suivi et versionning  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; dès le J1 et évolution à chaque journée</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Existence d'une matrice de risques </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J1 et J4 de coaching</t>
-    </r>
-  </si>
-  <si>
-    <t>Gestion technique du projet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Existence d'un plan de tests (tests unitaires &amp; tests de charge) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J3 de coaching si applicable (à voir avec le coach dès J0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Existence d'un environnement de tests d'intégration  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J3 de coaching si applicable (à voir avec le coach)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Existence d'un outil de traçabilité (Bugzilla / Mantis / BitBucket)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>J3 de coaching si applicable (à voir avec le coach)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Existence d'un mécanisme de build (Maven / Ant / Gradle / Jenkins)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> =&gt;  J2 de coaching </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Existence d'un outil d'analyse et suivi qualité (Sonar / PMD) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">=&gt; dès le  J2 de coaching si applicable </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Qualité générale du rendu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; à chaque journée de coaching</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Commentaires dans le code </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; dès J2 de coaching</t>
-    </r>
-  </si>
-  <si>
-    <t>Utilisation des outils et méthode de suivi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Utilisation régulière de l'outil de versionning (Git/versionning) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; à chaque journée de coaching</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Métrique sur l'utilisation de l'outil de d'analyse qualité </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">=&gt; dès le  J2 de coaching si applicable </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Exemple de rapport de tests </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt;  J4 de coaching</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Métrique sur l'outil de traçabilité (Bugzilla / Mantis / BitBucket) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; J4 de coaching si applicable (à voir avec le coach)</t>
-    </r>
-  </si>
-  <si>
-    <t>Bilan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Livrable sur la mécanique de build/déploiement du projet  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">=&gt; présentation J4 pour pouvoir terminer </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Livraison du journal de projet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>=&gt; max "jour J" de la soutenance, consultable lors du passage en soutenance</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Note finale </t>
   </si>
   <si>
     <t>Date : J0 27/04
@@ -599,40 +70,581 @@
 SOUT : 13/07</t>
   </si>
   <si>
+    <t>Nom des étudiants :</t>
+  </si>
+  <si>
+    <t>N= Notions de 4 (niveau max) à 1 (niveau min.) et NA (non applicable )</t>
+  </si>
+  <si>
+    <t>Compréhension du projet</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>J0</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Formations langages / frameworks </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J1 de coaching</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Fait windows os et linux OS et recherche sur powershell et python pour les script</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Formations outils </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J1 de coaching</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Vmware </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Taux d'avancement du projet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; (à chaque journée de coaching)</t>
+    </r>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Evolution du projet en terme technique </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; (à chaque journée de coaching)</t>
+    </r>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>Analyse et mise en place</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Existence d'un schéma de composants / déploiement </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J2 et J4 de coaching</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Existence d'un schéma de package /classes métiers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; J2 et J4 de coaching</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Mise en place de l'environnement de développement </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J1 et J2 de coaching</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">En cours VM linux en place </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Mise en place de l'outil de versionning (GIT, SVN, CVS, …) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J2 de coaching  max</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Réflexion sur la mise en place de l'environnement de production</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J1 de coaching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Existence d'un planning Suivi et versionning  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; dès le J1 et évolution à chaque journée</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Planning en cours </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Existence d'une matrice de risques </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J1 et J4 de coaching</t>
+    </r>
+  </si>
+  <si>
     <t>EN COURS</t>
   </si>
   <si>
-    <t>En cours</t>
+    <t>Gestion technique du projet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Existence d'un plan de tests (tests unitaires &amp; tests de charge) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J3 de coaching si applicable (à voir avec le coach dès J0)</t>
+    </r>
+  </si>
+  <si>
+    <t>pyunit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Existence d'un environnement de tests d'intégration  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J3 de coaching si applicable (à voir avec le coach)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Existence d'un outil de traçabilité (Bugzilla / Mantis / BitBucket)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>J3 de coaching si applicable (à voir avec le coach)</t>
+    </r>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Existence d'un mécanisme de build (Maven / Ant / Gradle / Jenkins)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt;  J2 de coaching </t>
+    </r>
+  </si>
+  <si>
+    <t>Auto-py-to-exe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Existence d'un outil d'analyse et suivi qualité (Sonar / PMD) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; dès le  J2 de coaching si applicable </t>
+    </r>
+  </si>
+  <si>
+    <t>SonarQube</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Qualité générale du rendu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; à chaque journée de coaching</t>
+    </r>
   </si>
   <si>
     <t>à voir</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Commentaires dans le code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; dès J2 de coaching</t>
+    </r>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Utilisation des outils et méthode de suivi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Utilisation régulière de l'outil de versionning (Git/versionning) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; à chaque journée de coaching</t>
+    </r>
+  </si>
+  <si>
     <t>Obligatoire</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>Fait</t>
-  </si>
-  <si>
-    <t>GIT</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Métrique sur l'utilisation de l'outil de d'analyse qualité </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; dès le  J2 de coaching si applicable </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Exemple de rapport de tests </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt;  J4 de coaching</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Métrique sur l'outil de traçabilité (Bugzilla / Mantis / BitBucket) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; J4 de coaching si applicable (à voir avec le coach)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bilan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Livrable sur la mécanique de build/déploiement du projet  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; présentation J4 pour pouvoir terminer </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Livraison du journal de projet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>=&gt; max "jour J" de la soutenance, consultable lors du passage en soutenance</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Note finale </t>
   </si>
 </sst>
 </file>
@@ -980,49 +992,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,44 +1430,44 @@
   </sheetPr>
   <dimension ref="B1:W983"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="0.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" customWidth="1"/>
-    <col min="8" max="8" width="0.6640625" customWidth="1"/>
-    <col min="9" max="13" width="3.33203125" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" customWidth="1"/>
+    <col min="9" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
     <col min="15" max="15" width="99" customWidth="1"/>
-    <col min="16" max="23" width="11.44140625" customWidth="1"/>
+    <col min="16" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:23" ht="95.25" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1476,23 +1488,23 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="2:23" ht="12.75" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="G4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-      <c r="O4" s="48" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="G4" s="32" t="s">
         <v>2</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="O4" s="33" t="s">
+        <v>3</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1504,19 +1516,19 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="20.25" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-      <c r="O5" s="49"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="O5" s="46"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1527,19 +1539,19 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="O6" s="49"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1550,14 +1562,14 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" customHeight="1">
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="O7" s="49"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1567,22 +1579,22 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="2:23" ht="14.4">
-      <c r="B8" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+    <row r="8" spans="2:23" ht="14.45">
+      <c r="B8" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="50"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1602,150 +1614,150 @@
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1">
       <c r="B10" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1">
-      <c r="B11" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="11"/>
       <c r="G11" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="1"/>
       <c r="O11" s="14" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1">
-      <c r="B12" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="11"/>
       <c r="G12" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1">
-      <c r="B13" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="11"/>
       <c r="G13" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1">
-      <c r="B14" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="11"/>
       <c r="G14" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1772,30 +1784,30 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1">
-      <c r="B16" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="18"/>
       <c r="G16" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N16" s="1"/>
       <c r="P16" s="1"/>
@@ -1808,24 +1820,24 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="2:23" ht="15" customHeight="1">
-      <c r="B17" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="14"/>
@@ -1839,24 +1851,24 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="2:23" ht="15" customHeight="1">
-      <c r="B18" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="11"/>
       <c r="G18" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="14"/>
@@ -1870,28 +1882,28 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="2:23" ht="15" customHeight="1">
-      <c r="B19" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="11"/>
       <c r="G19" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="1"/>
       <c r="O19" s="14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1903,25 +1915,25 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="2:23" ht="15" customHeight="1">
-      <c r="B20" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="11"/>
       <c r="G20" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="O20" s="14" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1933,25 +1945,25 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="2:23" ht="25.5" customHeight="1">
-      <c r="B21" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="11"/>
       <c r="G21" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="O21" s="26" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1963,31 +1975,31 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="2:23" ht="30.75" customHeight="1">
-      <c r="B22" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="11"/>
       <c r="G22" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1999,31 +2011,31 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1">
-      <c r="B23" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="11"/>
       <c r="G23" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2053,30 +2065,30 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="2:23" ht="15" customHeight="1">
-      <c r="B25" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="18"/>
       <c r="G25" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2088,24 +2100,26 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="2:23" ht="27.75" customHeight="1">
-      <c r="B26" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="11"/>
       <c r="G26" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M26" s="13"/>
-      <c r="O26" s="21"/>
+      <c r="O26" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2115,25 +2129,27 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="2:23" ht="28.2" customHeight="1">
-      <c r="B27" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
+    <row r="27" spans="2:23" ht="28.15" customHeight="1">
+      <c r="B27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="11"/>
       <c r="G27" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M27" s="13"/>
-      <c r="O27" s="21"/>
+      <c r="O27" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2143,25 +2159,27 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="2:23" ht="28.2" customHeight="1">
-      <c r="B28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
+    <row r="28" spans="2:23" ht="28.15" customHeight="1">
+      <c r="B28" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="11"/>
       <c r="G28" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M28" s="13"/>
-      <c r="O28" s="21"/>
+      <c r="O28" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2171,25 +2189,27 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="2:23" ht="14.4">
-      <c r="B29" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
+    <row r="29" spans="2:23">
+      <c r="B29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="11"/>
       <c r="G29" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
-      <c r="O29" s="21"/>
+      <c r="O29" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2200,28 +2220,30 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B30" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="11"/>
       <c r="G30" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2232,31 +2254,31 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B31" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
+      <c r="B31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="11"/>
       <c r="G31" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O31" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2268,28 +2290,28 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B32" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
+      <c r="B32" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="11"/>
       <c r="G32" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>48</v>
@@ -2304,24 +2326,24 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="2:23" ht="15" customHeight="1">
-      <c r="B33" s="52"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="11"/>
       <c r="G33" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O33" s="21"/>
       <c r="P33" s="1"/>
@@ -2352,30 +2374,30 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="2:23" ht="21" customHeight="1">
-      <c r="B35" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="18"/>
       <c r="G35" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -2386,32 +2408,32 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="2:23" ht="14.4">
-      <c r="B36" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
+    <row r="36" spans="2:23" ht="14.45">
+      <c r="B36" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="11"/>
       <c r="G36" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O36" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2423,28 +2445,30 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="2:23" ht="27" customHeight="1">
-      <c r="B37" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="11"/>
       <c r="G37" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2455,22 +2479,22 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B38" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="11"/>
       <c r="G38" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O38" s="21"/>
       <c r="P38" s="1"/>
@@ -2483,22 +2507,22 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="2:23" ht="27.6" customHeight="1">
-      <c r="B39" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
+      <c r="B39" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="11"/>
       <c r="G39" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O39" s="21"/>
       <c r="P39" s="1"/>
@@ -2529,68 +2553,68 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1">
-      <c r="B41" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="23"/>
       <c r="G41" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="2:23" ht="36" customHeight="1">
-      <c r="B42" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
+      <c r="B42" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="24"/>
       <c r="G42" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O42" s="21"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="2:23" ht="28.8" customHeight="1">
-      <c r="B43" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
+    <row r="43" spans="2:23" ht="28.9" customHeight="1">
+      <c r="B43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="24"/>
       <c r="G43" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
@@ -2608,20 +2632,20 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="2:23" ht="41.25" customHeight="1">
-      <c r="B45" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
+      <c r="B45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="55"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="29"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="35"/>
       <c r="O45" s="13"/>
     </row>
     <row r="46" spans="2:23" ht="15.75" customHeight="1"/>
@@ -3564,6 +3588,31 @@
     <row r="983" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:E6"/>
+    <mergeCell ref="G4:M8"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B41:E41"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B45:E45"/>
@@ -3575,31 +3624,6 @@
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:E6"/>
-    <mergeCell ref="G4:M8"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="1.1848958333333333E-2" header="0" footer="0"/>
